--- a/Word-Printer/samples/Level4/四层项目/XXX项目/06 ZRXX-20000-IM-P-01 事件管理程序记录/ZRXX-20000-IM-R-01 事件请求单-XXX项目.xlsx
+++ b/Word-Printer/samples/Level4/四层项目/XXX项目/06 ZRXX-20000-IM-P-01 事件管理程序记录/ZRXX-20000-IM-R-01 事件请求单-XXX项目.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\WordPrinter\Word-Printer\samples\Level4\四层项目\XXX项目\06 ZRXX-20000-IM-P-01 事件管理程序记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16340" yWindow="50" windowWidth="12480" windowHeight="11020" tabRatio="972"/>
+    <workbookView xWindow="16335" yWindow="45" windowWidth="12480" windowHeight="11025" tabRatio="972"/>
   </bookViews>
   <sheets>
     <sheet name="事件请求单" sheetId="64" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">事件请求单!$A$1:$D$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">事件请求单!$A$1:$D$25</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -20,64 +25,64 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>调整故障级别：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>服务经理
 意见</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>升级时间：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FAX / E-mail：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事件描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事件的处理情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">变更单号：                           变更登记时间：              </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>变更</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>客户意见及建议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>客户建议：无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>升级工程师：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>关闭确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事件、请求人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事件请求单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>紧急程度:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -91,28 +96,28 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联系人：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 联系电话：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事件标题：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
                                                             记录员：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事件级别:□S1 □S2 □S3 □S4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -148,7 +153,7 @@
       </rPr>
       <t xml:space="preserve">非常满意     □ 满意     □ 一般     □ 不满意     □ 非常不满意     </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -184,7 +189,7 @@
       </rPr>
       <t xml:space="preserve">非常满意     □ 满意     □ 一般     □ 不满意     □ 非常不满意 </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -220,7 +225,7 @@
       </rPr>
       <t xml:space="preserve">非常满意     □ 满意     □ 一般     □ 不满意     □ 非常不满意     </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -246,7 +251,7 @@
       </rPr>
       <t xml:space="preserve"> 非常满意     □ 满意     □ 一般     □ 不满意     □ 非常不满意 </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -263,7 +268,7 @@
       <t xml:space="preserve">服务经理签字（盖章）：           日期： 
 </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -288,7 +293,7 @@
       </rPr>
       <t xml:space="preserve">  是      □  否             确认人：              日期： </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -304,49 +309,26 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事件 ID：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="幼圆"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ZRXX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="幼圆"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-20000-IM-R-01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t xml:space="preserve"> ZRXX-20000-IM-R-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>客户名称：（项目甲方名称）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -358,29 +340,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="幼圆"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="幼圆"/>
       <family val="3"/>
       <charset val="134"/>
@@ -425,12 +390,6 @@
       <charset val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="幼圆"/>
@@ -445,15 +404,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="幼圆"/>
-      <family val="3"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFD30000"/>
       <name val="幼圆"/>
       <family val="3"/>
       <charset val="134"/>
@@ -479,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -851,198 +810,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1051,15 +998,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD30000"/>
+      <color rgb="FFD40000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1101,8 +1069,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1156,8 +1124,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1211,8 +1179,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1266,8 +1234,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1321,8 +1289,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1376,8 +1344,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1431,8 +1399,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1486,8 +1454,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1541,8 +1509,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1596,8 +1564,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1651,8 +1619,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1706,8 +1674,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1761,8 +1729,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1816,8 +1784,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1871,8 +1839,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1920,13 +1888,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1975,13 +1943,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2030,13 +1998,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2085,13 +2053,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2140,13 +2108,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2195,13 +2163,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2250,13 +2218,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2305,13 +2273,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2360,13 +2328,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2415,13 +2383,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2470,13 +2438,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2525,13 +2493,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2580,13 +2548,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2641,8 +2609,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2696,8 +2664,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2751,8 +2719,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2806,8 +2774,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2861,8 +2829,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2916,8 +2884,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2971,8 +2939,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3026,8 +2994,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3081,8 +3049,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3136,8 +3104,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3191,8 +3159,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3246,8 +3214,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3301,8 +3269,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3356,8 +3324,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3411,8 +3379,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3460,13 +3428,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3515,13 +3483,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3570,13 +3538,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3625,13 +3593,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3680,13 +3648,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3735,13 +3703,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3790,13 +3758,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3845,13 +3813,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3900,13 +3868,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3955,13 +3923,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4010,13 +3978,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4065,13 +4033,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4120,13 +4088,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4181,8 +4149,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4236,8 +4204,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4291,8 +4259,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4346,8 +4314,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4401,8 +4369,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4456,8 +4424,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4511,8 +4479,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4566,8 +4534,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4621,8 +4589,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4676,8 +4644,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4731,8 +4699,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4786,8 +4754,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4841,8 +4809,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4896,8 +4864,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4951,8 +4919,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5002,13 +4970,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1047750</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5022,7 +4990,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5030,9 +4998,32 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5061,14 +5052,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1111250</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:colOff>1114425</xdr:colOff>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1416050</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:colOff>1419225</xdr:colOff>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5082,7 +5073,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5090,9 +5081,32 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5122,13 +5136,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1524000</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1828800</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5142,7 +5156,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5150,9 +5164,32 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5181,14 +5218,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>673100</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1111250</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:colOff>1114425</xdr:colOff>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5202,7 +5239,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5210,9 +5247,32 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5241,14 +5301,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1225550</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:colOff>1228725</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1720850</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:colOff>1724025</xdr:colOff>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5262,7 +5322,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5270,9 +5330,32 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5301,15 +5384,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1758950</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:colOff>1762125</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>298450</xdr:rowOff>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5322,7 +5405,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5330,9 +5413,32 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5708,263 +5814,258 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="3.75" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A2" s="21" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="15" t="s">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
-    <row r="4" spans="1:4" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="22" t="s">
+    <row r="3" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A5" s="25" t="s">
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B4" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="8" t="s">
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17"/>
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A7" s="30" t="s">
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A8" s="30" t="s">
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="31" t="s">
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="23"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
     </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A13" s="19" t="s">
+    <row r="12" spans="1:4" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="11" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A14" s="43" t="s">
+    <row r="13" spans="1:4" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
+    <row r="14" spans="1:4" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="35"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="35"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
     </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="35"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="11" t="s">
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="36"/>
+      <c r="B17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A19" s="10" t="s">
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B18" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
     </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A20" s="43" t="s">
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B19" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62" t="s">
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
     </row>
-    <row r="22" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62" t="s">
+    <row r="21" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
     </row>
-    <row r="23" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A23" s="61"/>
-      <c r="B23" s="62" t="s">
+    <row r="22" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
     </row>
-    <row r="24" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="66" t="s">
+    <row r="23" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9"/>
+      <c r="B23" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
     </row>
-    <row r="25" spans="1:4" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A25" s="12" t="s">
+    <row r="24" spans="1:4" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B24" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
     </row>
-    <row r="26" spans="1:4" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A26" s="12" t="s">
+    <row r="25" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B25" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:D17"/>
-    <mergeCell ref="B26:D26"/>
+  <mergeCells count="21">
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:D16"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:D11"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:D12"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -5981,13 +6082,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>647700</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1047750</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6002,14 +6103,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1111250</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:colOff>1114425</xdr:colOff>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1416050</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:colOff>1419225</xdr:colOff>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6025,13 +6126,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1524000</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1828800</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6046,14 +6147,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>673100</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:colOff>676275</xdr:colOff>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1111250</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:colOff>1114425</xdr:colOff>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6068,14 +6169,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1225550</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:colOff>1228725</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1720850</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:colOff>1724025</xdr:colOff>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6090,15 +6191,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1758950</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:colOff>1762125</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>298450</xdr:rowOff>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
